--- a/JG_Project/모델링_결과_final.xlsx
+++ b/JG_Project/모델링_결과_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Jupy_Note\2023C\2023C_JG\JG_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B415AB-B95A-43B5-9C44-43F14EF43DC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201AD789-C9DA-438B-AFA5-7105AFD386E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-26192" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>연도</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>y_pred_LinearRegression</t>
-  </si>
-  <si>
-    <t>y_pred_DecisionTreeRegressor</t>
   </si>
   <si>
     <t>y_pred_RandomForestRegressor</t>
@@ -62,10 +59,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>{'max_depth': 6}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>{'max_depth': 10, 'min_samples_leaf': 6, 
 'min_samples_split': 7, 'n_estimators': 190,}</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -79,13 +72,42 @@
     <t>{'max_leaves'= 2,'outer_bags' = 10',interactions'=8}</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>y_pred_SVMRegressor</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSE 평가지표 결과 
+(실제값 - 예측값)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMSE 평가지표 결과
+(실제값 - 예측값)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSLE 평가지표 결과
+(실제값 - 예측값)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAPE 평가지표 결과
+(실제값 - 예측값)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'C': 4.752, 'epsilon': 1.3, 
+'kernel': 'rbf' }</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="0.0000"/>
+    <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -450,7 +472,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -709,6 +731,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -838,7 +923,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -853,51 +938,66 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1254,10 +1354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
@@ -1267,43 +1367,43 @@
     <col min="3" max="3" width="5.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>2023</v>
       </c>
       <c r="B2" s="2">
@@ -1315,24 +1415,24 @@
       <c r="D2" s="3">
         <v>37</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>38.1187934875488</v>
       </c>
-      <c r="F2" s="11">
-        <v>38.397058823529399</v>
-      </c>
-      <c r="G2" s="11">
+      <c r="F2" s="10">
+        <v>43.950719201720098</v>
+      </c>
+      <c r="G2" s="10">
         <v>38.6</v>
       </c>
-      <c r="H2" s="6">
-        <v>38.7409487572207</v>
-      </c>
-      <c r="I2" s="12">
+      <c r="H2" s="5">
+        <v>38.5781171190999</v>
+      </c>
+      <c r="I2" s="11">
         <v>40.7304799851266</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>2023</v>
       </c>
       <c r="B3" s="2">
@@ -1344,24 +1444,24 @@
       <c r="D3" s="3">
         <v>35</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>34.478017091751099</v>
       </c>
-      <c r="F3" s="11">
-        <v>38.397058823529399</v>
-      </c>
-      <c r="G3" s="11">
+      <c r="F3" s="10">
+        <v>42.558475558345897</v>
+      </c>
+      <c r="G3" s="10">
         <v>38.534210526315697</v>
       </c>
-      <c r="H3" s="6">
-        <v>37.388129663381399</v>
-      </c>
-      <c r="I3" s="12">
+      <c r="H3" s="5">
+        <v>37.292774356983401</v>
+      </c>
+      <c r="I3" s="11">
         <v>42.010883061720698</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>2023</v>
       </c>
       <c r="B4" s="2">
@@ -1373,24 +1473,24 @@
       <c r="D4" s="3">
         <v>36</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>33.8894169330596</v>
       </c>
-      <c r="F4" s="11">
-        <v>34.307692307692299</v>
-      </c>
-      <c r="G4" s="11">
+      <c r="F4" s="10">
+        <v>41.993522655742801</v>
+      </c>
+      <c r="G4" s="10">
         <v>34.463157894736803</v>
       </c>
-      <c r="H4" s="6">
-        <v>35.684409776159796</v>
-      </c>
-      <c r="I4" s="12">
+      <c r="H4" s="5">
+        <v>35.303188003372803</v>
+      </c>
+      <c r="I4" s="11">
         <v>35.070249236760098</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>2023</v>
       </c>
       <c r="B5" s="2">
@@ -1402,24 +1502,24 @@
       <c r="D5" s="3">
         <v>34</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>34.895286798477102</v>
       </c>
-      <c r="F5" s="11">
-        <v>38.397058823529399</v>
-      </c>
-      <c r="G5" s="11">
+      <c r="F5" s="10">
+        <v>41.908821696504504</v>
+      </c>
+      <c r="G5" s="10">
         <v>37.836842105263102</v>
       </c>
-      <c r="H5" s="6">
-        <v>36.041875072181703</v>
-      </c>
-      <c r="I5" s="12">
+      <c r="H5" s="5">
+        <v>35.942073561938301</v>
+      </c>
+      <c r="I5" s="11">
         <v>40.089188669812103</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>2023</v>
       </c>
       <c r="B6" s="2">
@@ -1431,24 +1531,24 @@
       <c r="D6" s="3">
         <v>32</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>33.912866353988598</v>
       </c>
-      <c r="F6" s="11">
-        <v>34.307692307692299</v>
-      </c>
-      <c r="G6" s="11">
+      <c r="F6" s="10">
+        <v>41.1653778855149</v>
+      </c>
+      <c r="G6" s="10">
         <v>33.736842105263101</v>
       </c>
-      <c r="H6" s="6">
-        <v>35.424434529360603</v>
-      </c>
-      <c r="I6" s="12">
+      <c r="H6" s="5">
+        <v>35.510322799592103</v>
+      </c>
+      <c r="I6" s="11">
         <v>38.231164734584098</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>2023</v>
       </c>
       <c r="B7" s="2">
@@ -1460,24 +1560,24 @@
       <c r="D7" s="3">
         <v>35</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>31.229843378066999</v>
       </c>
-      <c r="F7" s="11">
-        <v>30.363636363636299</v>
-      </c>
-      <c r="G7" s="11">
+      <c r="F7" s="10">
+        <v>42.105810057541603</v>
+      </c>
+      <c r="G7" s="10">
         <v>31.223684210526301</v>
       </c>
-      <c r="H7" s="6">
-        <v>31.701120456133001</v>
-      </c>
-      <c r="I7" s="12">
+      <c r="H7" s="5">
+        <v>31.671622331794399</v>
+      </c>
+      <c r="I7" s="11">
         <v>30.454791974355299</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>2023</v>
       </c>
       <c r="B8" s="2">
@@ -1489,24 +1589,24 @@
       <c r="D8" s="3">
         <v>37</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>35.751627922058098</v>
       </c>
-      <c r="F8" s="11">
-        <v>34.307692307692299</v>
-      </c>
-      <c r="G8" s="11">
+      <c r="F8" s="10">
+        <v>42.954658977562403</v>
+      </c>
+      <c r="G8" s="10">
         <v>34.773684210526298</v>
       </c>
-      <c r="H8" s="6">
-        <v>37.511235185759197</v>
-      </c>
-      <c r="I8" s="12">
+      <c r="H8" s="5">
+        <v>37.410458493395303</v>
+      </c>
+      <c r="I8" s="11">
         <v>34.871254293674099</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>2023</v>
       </c>
       <c r="B9" s="2">
@@ -1518,24 +1618,24 @@
       <c r="D9" s="3">
         <v>36</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>36.993921041488598</v>
       </c>
-      <c r="F9" s="11">
-        <v>38.397058823529399</v>
-      </c>
-      <c r="G9" s="11">
+      <c r="F9" s="10">
+        <v>42.283240190118697</v>
+      </c>
+      <c r="G9" s="10">
         <v>37.873684210526299</v>
       </c>
-      <c r="H9" s="6">
-        <v>36.350432222793998</v>
-      </c>
-      <c r="I9" s="12">
+      <c r="H9" s="5">
+        <v>35.994505030602603</v>
+      </c>
+      <c r="I9" s="11">
         <v>37.795867408508798</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>2023</v>
       </c>
       <c r="B10" s="2">
@@ -1547,24 +1647,24 @@
       <c r="D10" s="3">
         <v>34</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>35.930279970169003</v>
       </c>
-      <c r="F10" s="11">
-        <v>38.397058823529399</v>
-      </c>
-      <c r="G10" s="11">
+      <c r="F10" s="10">
+        <v>41.841211417801297</v>
+      </c>
+      <c r="G10" s="10">
         <v>37.742105263157796</v>
       </c>
-      <c r="H10" s="6">
-        <v>36.545591024973902</v>
-      </c>
-      <c r="I10" s="12">
+      <c r="H10" s="5">
+        <v>36.592408672159102</v>
+      </c>
+      <c r="I10" s="11">
         <v>33.938322100731902</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>2023</v>
       </c>
       <c r="B11" s="2">
@@ -1576,24 +1676,24 @@
       <c r="D11" s="3">
         <v>33</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>35.171516656875603</v>
       </c>
-      <c r="F11" s="11">
-        <v>34.307692307692299</v>
-      </c>
-      <c r="G11" s="11">
+      <c r="F11" s="10">
+        <v>41.905560811626202</v>
+      </c>
+      <c r="G11" s="10">
         <v>33.231578947368398</v>
       </c>
-      <c r="H11" s="6">
-        <v>34.933478858391197</v>
-      </c>
-      <c r="I11" s="12">
+      <c r="H11" s="5">
+        <v>35.0279084108437</v>
+      </c>
+      <c r="I11" s="11">
         <v>33.839291241153298</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>2023</v>
       </c>
       <c r="B12" s="2">
@@ -1605,24 +1705,24 @@
       <c r="D12" s="3">
         <v>34</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>33.920122861862097</v>
       </c>
-      <c r="F12" s="11">
-        <v>30.363636363636299</v>
-      </c>
-      <c r="G12" s="11">
+      <c r="F12" s="10">
+        <v>42.5063774074981</v>
+      </c>
+      <c r="G12" s="10">
         <v>31.676315789473598</v>
       </c>
-      <c r="H12" s="6">
-        <v>34.1137867612306</v>
-      </c>
-      <c r="I12" s="12">
+      <c r="H12" s="5">
+        <v>34.016709391954898</v>
+      </c>
+      <c r="I12" s="11">
         <v>33.506406545295903</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>2023</v>
       </c>
       <c r="B13" s="2">
@@ -1634,24 +1734,24 @@
       <c r="D13" s="3">
         <v>30</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>33.544170856475802</v>
       </c>
-      <c r="F13" s="11">
-        <v>34.307692307692299</v>
-      </c>
-      <c r="G13" s="11">
+      <c r="F13" s="10">
+        <v>41.759802004333302</v>
+      </c>
+      <c r="G13" s="10">
         <v>33.252631578947302</v>
       </c>
-      <c r="H13" s="6">
-        <v>34.566482521696102</v>
-      </c>
-      <c r="I13" s="12">
+      <c r="H13" s="5">
+        <v>34.572495813133102</v>
+      </c>
+      <c r="I13" s="11">
         <v>32.926723906693198</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>2023</v>
       </c>
       <c r="B14" s="2">
@@ -1663,24 +1763,24 @@
       <c r="D14" s="3">
         <v>31</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>29.2663941383361</v>
       </c>
-      <c r="F14" s="11">
-        <v>30.363636363636299</v>
-      </c>
-      <c r="G14" s="11">
+      <c r="F14" s="10">
+        <v>39.7799783153474</v>
+      </c>
+      <c r="G14" s="10">
         <v>31.2078947368421</v>
       </c>
-      <c r="H14" s="6">
-        <v>30.990394251223201</v>
-      </c>
-      <c r="I14" s="12">
+      <c r="H14" s="5">
+        <v>30.933680693483002</v>
+      </c>
+      <c r="I14" s="11">
         <v>32.947079434930401</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <v>2023</v>
       </c>
       <c r="B15" s="2">
@@ -1692,24 +1792,24 @@
       <c r="D15" s="3">
         <v>27</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>30.705045461654599</v>
       </c>
-      <c r="F15" s="11">
-        <v>30.363636363636299</v>
-      </c>
-      <c r="G15" s="11">
+      <c r="F15" s="10">
+        <v>41.4983793970788</v>
+      </c>
+      <c r="G15" s="10">
         <v>31.378947368420999</v>
       </c>
-      <c r="H15" s="6">
-        <v>31.370613146833701</v>
-      </c>
-      <c r="I15" s="12">
+      <c r="H15" s="5">
+        <v>31.225745271530801</v>
+      </c>
+      <c r="I15" s="11">
         <v>33.254295692165897</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
+      <c r="A16" s="9">
         <v>2023</v>
       </c>
       <c r="B16" s="2">
@@ -1721,24 +1821,24 @@
       <c r="D16" s="3">
         <v>31</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>27.915799617767298</v>
       </c>
-      <c r="F16" s="11">
-        <v>25.127659574468002</v>
-      </c>
-      <c r="G16" s="11">
+      <c r="F16" s="10">
+        <v>42.009038111063603</v>
+      </c>
+      <c r="G16" s="10">
         <v>25.9657894736842</v>
       </c>
-      <c r="H16" s="6">
-        <v>27.057640329850901</v>
-      </c>
-      <c r="I16" s="12">
+      <c r="H16" s="5">
+        <v>27.013106089866199</v>
+      </c>
+      <c r="I16" s="11">
         <v>27.2807276515883</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+      <c r="A17" s="9">
         <v>2023</v>
       </c>
       <c r="B17" s="2">
@@ -1750,24 +1850,24 @@
       <c r="D17" s="3">
         <v>30</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>32.6952385902404</v>
       </c>
-      <c r="F17" s="11">
-        <v>30.363636363636299</v>
-      </c>
-      <c r="G17" s="11">
+      <c r="F17" s="10">
+        <v>43.019224118430998</v>
+      </c>
+      <c r="G17" s="10">
         <v>31.494736842105201</v>
       </c>
-      <c r="H17" s="6">
-        <v>33.247581159164199</v>
-      </c>
-      <c r="I17" s="12">
+      <c r="H17" s="5">
+        <v>33.2532066798043</v>
+      </c>
+      <c r="I17" s="11">
         <v>34.953246750719501</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
+      <c r="A18" s="9">
         <v>2023</v>
       </c>
       <c r="B18" s="2">
@@ -1779,24 +1879,24 @@
       <c r="D18" s="3">
         <v>33</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>29.939480781555101</v>
       </c>
-      <c r="F18" s="11">
-        <v>30.363636363636299</v>
-      </c>
-      <c r="G18" s="11">
+      <c r="F18" s="10">
+        <v>42.979341781123097</v>
+      </c>
+      <c r="G18" s="10">
         <v>30.621052631578898</v>
       </c>
-      <c r="H18" s="6">
-        <v>30.1130990723148</v>
-      </c>
-      <c r="I18" s="12">
+      <c r="H18" s="5">
+        <v>30.034279799451699</v>
+      </c>
+      <c r="I18" s="11">
         <v>31.367723701286099</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
+      <c r="A19" s="9">
         <v>2023</v>
       </c>
       <c r="B19" s="2">
@@ -1808,24 +1908,24 @@
       <c r="D19" s="3">
         <v>35</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>34.067182302474897</v>
       </c>
-      <c r="F19" s="11">
-        <v>30.363636363636299</v>
-      </c>
-      <c r="G19" s="11">
+      <c r="F19" s="10">
+        <v>42.4683877712868</v>
+      </c>
+      <c r="G19" s="10">
         <v>31.657894736842099</v>
       </c>
-      <c r="H19" s="6">
-        <v>34.2865971166107</v>
-      </c>
-      <c r="I19" s="12">
+      <c r="H19" s="5">
+        <v>34.294977671190402</v>
+      </c>
+      <c r="I19" s="11">
         <v>32.851528856098597</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
+      <c r="A20" s="9">
         <v>2023</v>
       </c>
       <c r="B20" s="2">
@@ -1837,24 +1937,24 @@
       <c r="D20" s="3">
         <v>37</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <v>34.290947198867798</v>
       </c>
-      <c r="F20" s="11">
-        <v>34.307692307692299</v>
-      </c>
-      <c r="G20" s="11">
+      <c r="F20" s="10">
+        <v>41.360451735881703</v>
+      </c>
+      <c r="G20" s="10">
         <v>34.607894736842098</v>
       </c>
-      <c r="H20" s="6">
-        <v>34.981011643435103</v>
-      </c>
-      <c r="I20" s="12">
+      <c r="H20" s="5">
+        <v>34.9151934655129</v>
+      </c>
+      <c r="I20" s="11">
         <v>33.5684065695173</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
+      <c r="A21" s="9">
         <v>2023</v>
       </c>
       <c r="B21" s="2">
@@ -1866,24 +1966,24 @@
       <c r="D21" s="3">
         <v>36</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <v>38.295382022857602</v>
       </c>
-      <c r="F21" s="11">
-        <v>38.397058823529399</v>
-      </c>
-      <c r="G21" s="11">
+      <c r="F21" s="10">
+        <v>41.869637345582397</v>
+      </c>
+      <c r="G21" s="10">
         <v>38.184210526315702</v>
       </c>
-      <c r="H21" s="6">
-        <v>37.095000212058601</v>
-      </c>
-      <c r="I21" s="12">
+      <c r="H21" s="5">
+        <v>37.087925205838197</v>
+      </c>
+      <c r="I21" s="11">
         <v>37.472349664578097</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
+      <c r="A22" s="9">
         <v>2023</v>
       </c>
       <c r="B22" s="2">
@@ -1895,24 +1995,24 @@
       <c r="D22" s="3">
         <v>35</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <v>37.248266220092702</v>
       </c>
-      <c r="F22" s="11">
-        <v>38.397058823529399</v>
-      </c>
-      <c r="G22" s="11">
+      <c r="F22" s="10">
+        <v>43.455202676740001</v>
+      </c>
+      <c r="G22" s="10">
         <v>38.563157894736797</v>
       </c>
-      <c r="H22" s="6">
-        <v>38.815264308674998</v>
-      </c>
-      <c r="I22" s="12">
+      <c r="H22" s="5">
+        <v>38.805620602322001</v>
+      </c>
+      <c r="I22" s="11">
         <v>38.020709313560801</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
+      <c r="A23" s="9">
         <v>2023</v>
       </c>
       <c r="B23" s="2">
@@ -1924,24 +2024,24 @@
       <c r="D23" s="3">
         <v>35</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <v>34.827816009521399</v>
       </c>
-      <c r="F23" s="11">
-        <v>34.307692307692299</v>
-      </c>
-      <c r="G23" s="11">
+      <c r="F23" s="10">
+        <v>41.6738710754504</v>
+      </c>
+      <c r="G23" s="10">
         <v>34.607894736842098</v>
       </c>
-      <c r="H23" s="6">
-        <v>36.2770914960063</v>
-      </c>
-      <c r="I23" s="12">
+      <c r="H23" s="5">
+        <v>36.151858801138196</v>
+      </c>
+      <c r="I23" s="11">
         <v>35.513346297118098</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
+      <c r="A24" s="9">
         <v>2023</v>
       </c>
       <c r="B24" s="2">
@@ -1953,24 +2053,24 @@
       <c r="D24" s="3">
         <v>36</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <v>34.352858066558802</v>
       </c>
-      <c r="F24" s="11">
-        <v>34.307692307692299</v>
-      </c>
-      <c r="G24" s="11">
+      <c r="F24" s="10">
+        <v>41.234828447588001</v>
+      </c>
+      <c r="G24" s="10">
         <v>34.710526315789402</v>
       </c>
-      <c r="H24" s="6">
-        <v>35.993059682195302</v>
-      </c>
-      <c r="I24" s="12">
+      <c r="H24" s="5">
+        <v>35.746470296924997</v>
+      </c>
+      <c r="I24" s="11">
         <v>35.169494997083198</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
+      <c r="A25" s="9">
         <v>2023</v>
       </c>
       <c r="B25" s="2">
@@ -1982,24 +2082,24 @@
       <c r="D25" s="3">
         <v>36</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="10">
         <v>35.883709669113102</v>
       </c>
-      <c r="F25" s="11">
-        <v>38.397058823529399</v>
-      </c>
-      <c r="G25" s="11">
+      <c r="F25" s="10">
+        <v>40.784887692635102</v>
+      </c>
+      <c r="G25" s="10">
         <v>37.942105263157799</v>
       </c>
-      <c r="H25" s="6">
-        <v>36.2627817920336</v>
-      </c>
-      <c r="I25" s="12">
+      <c r="H25" s="5">
+        <v>36.296610211737601</v>
+      </c>
+      <c r="I25" s="11">
         <v>36.755729341195597</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
+      <c r="A26" s="9">
         <v>2023</v>
       </c>
       <c r="B26" s="2">
@@ -2011,24 +2111,24 @@
       <c r="D26" s="3">
         <v>38</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="10">
         <v>35.4598708152771</v>
       </c>
-      <c r="F26" s="11">
-        <v>38.397058823529399</v>
-      </c>
-      <c r="G26" s="11">
+      <c r="F26" s="10">
+        <v>40.818693016643202</v>
+      </c>
+      <c r="G26" s="10">
         <v>37.857894736842098</v>
       </c>
-      <c r="H26" s="6">
-        <v>35.821255133904003</v>
-      </c>
-      <c r="I26" s="12">
+      <c r="H26" s="5">
+        <v>35.650994446424903</v>
+      </c>
+      <c r="I26" s="11">
         <v>38.112779702441202</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="10">
+      <c r="A27" s="9">
         <v>2023</v>
       </c>
       <c r="B27" s="2">
@@ -2040,24 +2140,24 @@
       <c r="D27" s="3">
         <v>32</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="10">
         <v>38.068574190139699</v>
       </c>
-      <c r="F27" s="11">
-        <v>38.397058823529399</v>
-      </c>
-      <c r="G27" s="11">
+      <c r="F27" s="10">
+        <v>41.7055964676182</v>
+      </c>
+      <c r="G27" s="10">
         <v>38.6394736842105</v>
       </c>
-      <c r="H27" s="6">
-        <v>38.324797233635799</v>
-      </c>
-      <c r="I27" s="12">
+      <c r="H27" s="5">
+        <v>38.370752091719297</v>
+      </c>
+      <c r="I27" s="11">
         <v>35.965479758719397</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="10">
+      <c r="A28" s="9">
         <v>2023</v>
       </c>
       <c r="B28" s="2">
@@ -2069,24 +2169,24 @@
       <c r="D28" s="3">
         <v>33</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="10">
         <v>33.118246078491197</v>
       </c>
-      <c r="F28" s="11">
-        <v>30.363636363636299</v>
-      </c>
-      <c r="G28" s="11">
+      <c r="F28" s="10">
+        <v>38.6840826688153</v>
+      </c>
+      <c r="G28" s="10">
         <v>31.6315789473684</v>
       </c>
-      <c r="H28" s="6">
-        <v>31.292967061137301</v>
-      </c>
-      <c r="I28" s="12">
+      <c r="H28" s="5">
+        <v>31.434077665625999</v>
+      </c>
+      <c r="I28" s="11">
         <v>33.814936882767597</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
+      <c r="A29" s="9">
         <v>2023</v>
       </c>
       <c r="B29" s="2">
@@ -2098,24 +2198,24 @@
       <c r="D29" s="3">
         <v>35</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="10">
         <v>32.012766361236501</v>
       </c>
-      <c r="F29" s="11">
-        <v>30.363636363636299</v>
-      </c>
-      <c r="G29" s="11">
+      <c r="F29" s="10">
+        <v>40.369008383017501</v>
+      </c>
+      <c r="G29" s="10">
         <v>31.710526315789402</v>
       </c>
-      <c r="H29" s="6">
-        <v>32.609524574256397</v>
-      </c>
-      <c r="I29" s="12">
+      <c r="H29" s="5">
+        <v>32.546948888495798</v>
+      </c>
+      <c r="I29" s="11">
         <v>31.558949561888902</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="10">
+      <c r="A30" s="9">
         <v>2023</v>
       </c>
       <c r="B30" s="2">
@@ -2127,24 +2227,24 @@
       <c r="D30" s="3">
         <v>33</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="10">
         <v>35.041852712631197</v>
       </c>
-      <c r="F30" s="11">
-        <v>34.307692307692299</v>
-      </c>
-      <c r="G30" s="11">
+      <c r="F30" s="10">
+        <v>41.311982695832903</v>
+      </c>
+      <c r="G30" s="10">
         <v>34.731578947368398</v>
       </c>
-      <c r="H30" s="6">
-        <v>36.479468880742303</v>
-      </c>
-      <c r="I30" s="12">
+      <c r="H30" s="5">
+        <v>36.550442121691098</v>
+      </c>
+      <c r="I30" s="11">
         <v>33.557632001124098</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="10">
+      <c r="A31" s="9">
         <v>2023</v>
       </c>
       <c r="B31" s="2">
@@ -2156,24 +2256,24 @@
       <c r="D31" s="3">
         <v>35</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="10">
         <v>30.692996263504</v>
       </c>
-      <c r="F31" s="11">
-        <v>30.363636363636299</v>
-      </c>
-      <c r="G31" s="11">
+      <c r="F31" s="10">
+        <v>40.159764701721699</v>
+      </c>
+      <c r="G31" s="10">
         <v>31.481578947368401</v>
       </c>
-      <c r="H31" s="6">
-        <v>32.395172211210699</v>
-      </c>
-      <c r="I31" s="12">
+      <c r="H31" s="5">
+        <v>32.441397700158298</v>
+      </c>
+      <c r="I31" s="11">
         <v>27.960421769968001</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="10">
+      <c r="A32" s="9">
         <v>2023</v>
       </c>
       <c r="B32" s="2">
@@ -2185,24 +2285,24 @@
       <c r="D32" s="3">
         <v>34</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="10">
         <v>36.330398321151698</v>
       </c>
-      <c r="F32" s="11">
-        <v>34.307692307692299</v>
-      </c>
-      <c r="G32" s="11">
+      <c r="F32" s="10">
+        <v>42.500288291710802</v>
+      </c>
+      <c r="G32" s="10">
         <v>35.034210526315697</v>
       </c>
-      <c r="H32" s="6">
-        <v>37.340339495074403</v>
-      </c>
-      <c r="I32" s="12">
+      <c r="H32" s="5">
+        <v>37.425605015040802</v>
+      </c>
+      <c r="I32" s="11">
         <v>37.570147528716603</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="10">
+      <c r="A33" s="9">
         <v>2023</v>
       </c>
       <c r="B33" s="2">
@@ -2214,72 +2314,192 @@
       <c r="D33" s="3">
         <v>33</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="10">
         <v>33.720880985260003</v>
       </c>
-      <c r="F33" s="11">
-        <v>34.307692307692299</v>
-      </c>
-      <c r="G33" s="11">
+      <c r="F33" s="10">
+        <v>41.416433019689599</v>
+      </c>
+      <c r="G33" s="10">
         <v>33.505263157894703</v>
       </c>
-      <c r="H33" s="6">
-        <v>35.013733390347603</v>
-      </c>
-      <c r="I33" s="12">
+      <c r="H33" s="5">
+        <v>34.882892378293199</v>
+      </c>
+      <c r="I33" s="11">
         <v>35.029161875339298</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="44.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+      <c r="A34" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
       <c r="E34" s="4">
         <v>2.0566</v>
       </c>
       <c r="F34" s="4">
-        <v>2.7803</v>
+        <v>7.7510000000000003</v>
       </c>
       <c r="G34" s="4">
         <v>2.3906000000000001</v>
       </c>
       <c r="H34" s="4">
-        <v>2.2161</v>
-      </c>
-      <c r="I34" s="14">
+        <v>2.1920000000000002</v>
+      </c>
+      <c r="I34" s="12">
         <v>2.7810000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="57.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="17" t="s">
+    <row r="35" spans="1:9" ht="44.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="20">
+        <v>6.0393999999999997</v>
+      </c>
+      <c r="F35" s="20">
+        <v>66.250799999999998</v>
+      </c>
+      <c r="G35" s="20">
+        <v>7.9317000000000002</v>
+      </c>
+      <c r="H35" s="20">
+        <v>7.2325999999999997</v>
+      </c>
+      <c r="I35" s="21">
+        <v>12.059200000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="44.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="20">
+        <v>2.4575</v>
+      </c>
+      <c r="F36" s="20">
+        <v>8.1395</v>
+      </c>
+      <c r="G36" s="20">
+        <v>2.8163</v>
+      </c>
+      <c r="H36" s="20">
+        <v>2.6894</v>
+      </c>
+      <c r="I36" s="21">
+        <v>3.4725999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="44.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="20">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="F37" s="20">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="G37" s="20">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="H37" s="20">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="I37" s="21">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="44.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="20">
+        <v>8.1889000000000003</v>
+      </c>
+      <c r="F38" s="20">
+        <v>18.529699999999998</v>
+      </c>
+      <c r="G38" s="20">
+        <v>7.0636999999999999</v>
+      </c>
+      <c r="H38" s="20">
+        <v>6.4618000000000002</v>
+      </c>
+      <c r="I38" s="21">
+        <v>8.0557999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="44.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="20">
+        <v>-0.2341</v>
+      </c>
+      <c r="F39" s="20">
+        <v>18.529699999999998</v>
+      </c>
+      <c r="G39" s="20">
+        <v>0.43759999999999999</v>
+      </c>
+      <c r="H39" s="20">
+        <v>1.8945000000000001</v>
+      </c>
+      <c r="I39" s="21">
+        <v>1.8447</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="135.19999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="H40" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="I40" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H35" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35" s="19" t="s">
-        <v>15</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="7">
     <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A40:D40"/>
     <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A37:D37"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
